--- a/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="رتبة البطولة" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>معلومات أخرى عن المستوى الدراسي</t>
   </si>
@@ -134,6 +134,36 @@
   </si>
   <si>
     <t>LocalizableData</t>
+  </si>
+  <si>
+    <t>NameOfCategory</t>
+  </si>
+  <si>
+    <t>Nom de la classe d'age</t>
+  </si>
+  <si>
+    <t>SmallestYear</t>
+  </si>
+  <si>
+    <t>LargestYear</t>
+  </si>
+  <si>
+    <t>Année minimum</t>
+  </si>
+  <si>
+    <t>Année maximum</t>
+  </si>
+  <si>
+    <t>Catégorie d'age</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Age Groups</t>
+  </si>
+  <si>
+    <t>Catégories d'age</t>
   </si>
 </sst>
 </file>
@@ -267,17 +297,20 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -312,16 +345,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="thin">
           <color theme="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="medium">
           <color theme="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -351,9 +384,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -368,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau8" displayName="Tableau8" ref="A4:D8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau8" displayName="Tableau8" ref="A4:D8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A4:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -387,14 +417,14 @@
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Anglais"/>
     <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="3"/>
+    <tableColumn id="4" name="Arabe" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau7" displayName="Tableau7" ref="A1:D4" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau7" displayName="Tableau7" ref="A1:D4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:D4"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Code"/>
@@ -413,7 +443,7 @@
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Anglais"/>
     <tableColumn id="3" name="Français"/>
-    <tableColumn id="4" name="Arabe" dataDxfId="7"/>
+    <tableColumn id="4" name="Arabe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -795,13 +825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -822,6 +854,12 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
@@ -845,6 +883,12 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
@@ -865,6 +909,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
@@ -885,11 +938,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>

--- a/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>معلومات أخرى عن المستوى الدراسي</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>Catégories d'age</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Small</t>
   </si>
 </sst>
 </file>
@@ -826,7 +838,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,6 +961,18 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="رتبة البطولة" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>معلومات أخرى عن المستوى الدراسي</t>
   </si>
@@ -164,6 +164,48 @@
   </si>
   <si>
     <t>Catégories d'age</t>
+  </si>
+  <si>
+    <t>SingularName</t>
+  </si>
+  <si>
+    <t>PluralName</t>
+  </si>
+  <si>
+    <t>Tournament category</t>
+  </si>
+  <si>
+    <t>Tournament categories</t>
+  </si>
+  <si>
+    <t>Catégorie de tournoi</t>
+  </si>
+  <si>
+    <t>Catégories de tournois</t>
+  </si>
+  <si>
+    <t>Nom de la catégorie</t>
+  </si>
+  <si>
+    <t>category name</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>régional</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>international</t>
   </si>
 </sst>
 </file>
@@ -450,7 +492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,7 +784,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
@@ -825,11 +867,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -976,21 +1018,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -1003,46 +1049,98 @@
       <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1063,7 +1161,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>

--- a/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
+++ b/Modélisation/3.Dictionnaire de données/Configuration - إعدادات.xlsx
@@ -838,7 +838,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
